--- a/Data/Weather/hourly_weather_27-03-2019.xlsx
+++ b/Data/Weather/hourly_weather_27-03-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorditijsseclaase/Documents/TUe/Jaar 6/Internship/Assignment/Data/Weather/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A79947-A75F-0D48-AC22-71C6E8B2015C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A103554-515F-D24F-AEEC-481F6616E9D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="1780" windowWidth="27840" windowHeight="17060" xr2:uid="{B9CABEBE-DD7C-1348-98DD-A9DC76AC7C7F}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19200" xr2:uid="{B9CABEBE-DD7C-1348-98DD-A9DC76AC7C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="1788">
   <si>
     <t>Year</t>
   </si>
@@ -4551,54 +4551,12 @@
     <t>4.59</t>
   </si>
   <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>18.36</t>
-  </si>
-  <si>
-    <t>229.27</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
     <t>4.69</t>
   </si>
   <si>
-    <t>193.24</t>
-  </si>
-  <si>
-    <t>5.39</t>
-  </si>
-  <si>
-    <t>192.09</t>
-  </si>
-  <si>
-    <t>24.54</t>
-  </si>
-  <si>
-    <t>194.44</t>
-  </si>
-  <si>
-    <t>6.77</t>
-  </si>
-  <si>
     <t>24.16</t>
   </si>
   <si>
-    <t>204.66</t>
-  </si>
-  <si>
-    <t>22.96</t>
-  </si>
-  <si>
-    <t>9.71</t>
-  </si>
-  <si>
-    <t>21.38</t>
-  </si>
-  <si>
     <t>11.08</t>
   </si>
   <si>
@@ -4608,165 +4566,15 @@
     <t>224.42</t>
   </si>
   <si>
-    <t>24.19</t>
-  </si>
-  <si>
-    <t>216.53</t>
-  </si>
-  <si>
-    <t>208.02</t>
-  </si>
-  <si>
-    <t>26.09</t>
-  </si>
-  <si>
-    <t>207.98</t>
-  </si>
-  <si>
-    <t>12.12</t>
-  </si>
-  <si>
-    <t>32.33</t>
-  </si>
-  <si>
-    <t>217.76</t>
-  </si>
-  <si>
-    <t>35.13</t>
-  </si>
-  <si>
-    <t>224.17</t>
-  </si>
-  <si>
     <t>11.78</t>
   </si>
   <si>
-    <t>27.46</t>
-  </si>
-  <si>
-    <t>235.68</t>
-  </si>
-  <si>
-    <t>25.46</t>
-  </si>
-  <si>
-    <t>236.53</t>
-  </si>
-  <si>
-    <t>11.70</t>
-  </si>
-  <si>
-    <t>30.46</t>
-  </si>
-  <si>
-    <t>237.06</t>
-  </si>
-  <si>
-    <t>11.40</t>
-  </si>
-  <si>
-    <t>31.77</t>
-  </si>
-  <si>
-    <t>231.44</t>
-  </si>
-  <si>
-    <t>28.52</t>
-  </si>
-  <si>
-    <t>223.98</t>
-  </si>
-  <si>
-    <t>10.94</t>
-  </si>
-  <si>
-    <t>27.75</t>
-  </si>
-  <si>
-    <t>225.53</t>
-  </si>
-  <si>
-    <t>10.65</t>
-  </si>
-  <si>
-    <t>26.34</t>
-  </si>
-  <si>
-    <t>248.34</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>26.79</t>
-  </si>
-  <si>
     <t>228.81</t>
   </si>
   <si>
-    <t>9.13</t>
-  </si>
-  <si>
-    <t>251.16</t>
-  </si>
-  <si>
-    <t>30.22</t>
-  </si>
-  <si>
-    <t>257.62</t>
-  </si>
-  <si>
-    <t>7.04</t>
-  </si>
-  <si>
-    <t>28.20</t>
-  </si>
-  <si>
-    <t>6.17</t>
-  </si>
-  <si>
-    <t>24.25</t>
-  </si>
-  <si>
-    <t>251.83</t>
-  </si>
-  <si>
-    <t>6.01</t>
-  </si>
-  <si>
-    <t>22.22</t>
-  </si>
-  <si>
-    <t>243.02</t>
-  </si>
-  <si>
-    <t>243.80</t>
-  </si>
-  <si>
-    <t>8.14</t>
-  </si>
-  <si>
-    <t>26.89</t>
-  </si>
-  <si>
-    <t>242.06</t>
-  </si>
-  <si>
     <t>8.15</t>
   </si>
   <si>
-    <t>27.91</t>
-  </si>
-  <si>
-    <t>239.80</t>
-  </si>
-  <si>
-    <t>31.62</t>
-  </si>
-  <si>
-    <t>247.23</t>
-  </si>
-  <si>
     <t>9.84</t>
   </si>
   <si>
@@ -4776,138 +4584,6 @@
     <t>250.97</t>
   </si>
   <si>
-    <t>10.81</t>
-  </si>
-  <si>
-    <t>34.98</t>
-  </si>
-  <si>
-    <t>11.10</t>
-  </si>
-  <si>
-    <t>32.02</t>
-  </si>
-  <si>
-    <t>261.60</t>
-  </si>
-  <si>
-    <t>262.71</t>
-  </si>
-  <si>
-    <t>12.07</t>
-  </si>
-  <si>
-    <t>33.32</t>
-  </si>
-  <si>
-    <t>263.80</t>
-  </si>
-  <si>
-    <t>11.76</t>
-  </si>
-  <si>
-    <t>262.32</t>
-  </si>
-  <si>
-    <t>11.03</t>
-  </si>
-  <si>
-    <t>30.24</t>
-  </si>
-  <si>
-    <t>261.10</t>
-  </si>
-  <si>
-    <t>27.47</t>
-  </si>
-  <si>
-    <t>259.43</t>
-  </si>
-  <si>
-    <t>24.80</t>
-  </si>
-  <si>
-    <t>256.57</t>
-  </si>
-  <si>
-    <t>20.78</t>
-  </si>
-  <si>
-    <t>256.83</t>
-  </si>
-  <si>
-    <t>6.56</t>
-  </si>
-  <si>
-    <t>15.39</t>
-  </si>
-  <si>
-    <t>259.22</t>
-  </si>
-  <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>259.82</t>
-  </si>
-  <si>
-    <t>261.87</t>
-  </si>
-  <si>
-    <t>13.63</t>
-  </si>
-  <si>
-    <t>257.80</t>
-  </si>
-  <si>
-    <t>13.91</t>
-  </si>
-  <si>
-    <t>259.56</t>
-  </si>
-  <si>
-    <t>4.26</t>
-  </si>
-  <si>
-    <t>13.01</t>
-  </si>
-  <si>
-    <t>255.58</t>
-  </si>
-  <si>
-    <t>252.65</t>
-  </si>
-  <si>
-    <t>11.01</t>
-  </si>
-  <si>
-    <t>258.69</t>
-  </si>
-  <si>
-    <t>5.83</t>
-  </si>
-  <si>
-    <t>256.43</t>
-  </si>
-  <si>
-    <t>273.47</t>
-  </si>
-  <si>
-    <t>10.98</t>
-  </si>
-  <si>
-    <t>12.81</t>
-  </si>
-  <si>
-    <t>17.19</t>
-  </si>
-  <si>
-    <t>289.57</t>
-  </si>
-  <si>
-    <t>292.62</t>
-  </si>
-  <si>
     <t>14.86</t>
   </si>
   <si>
@@ -4917,325 +4593,802 @@
     <t>304.33</t>
   </si>
   <si>
-    <t>15.67</t>
-  </si>
-  <si>
-    <t>16.10</t>
-  </si>
-  <si>
-    <t>9.83</t>
-  </si>
-  <si>
-    <t>293.75</t>
-  </si>
-  <si>
-    <t>308.05</t>
-  </si>
-  <si>
-    <t>16.89</t>
-  </si>
-  <si>
-    <t>317.49</t>
-  </si>
-  <si>
     <t>16.80</t>
   </si>
   <si>
-    <t>320.44</t>
-  </si>
-  <si>
-    <t>16.41</t>
-  </si>
-  <si>
-    <t>317.86</t>
-  </si>
-  <si>
-    <t>15.42</t>
-  </si>
-  <si>
     <t>336.80</t>
   </si>
   <si>
     <t>13.84</t>
   </si>
   <si>
-    <t>12.34</t>
-  </si>
-  <si>
     <t>11.27</t>
   </si>
   <si>
-    <t>28.07</t>
-  </si>
-  <si>
-    <t>8.21</t>
-  </si>
-  <si>
-    <t>52.13</t>
-  </si>
-  <si>
-    <t>46.40</t>
-  </si>
-  <si>
     <t>48.18</t>
   </si>
   <si>
-    <t>7.39</t>
-  </si>
-  <si>
-    <t>46.74</t>
-  </si>
-  <si>
-    <t>15.14</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>16.73</t>
-  </si>
-  <si>
     <t>2.28</t>
   </si>
   <si>
-    <t>19.11</t>
-  </si>
-  <si>
-    <t>163.30</t>
-  </si>
-  <si>
-    <t>19.83</t>
-  </si>
-  <si>
     <t>3.24</t>
   </si>
   <si>
-    <t>20.21</t>
-  </si>
-  <si>
-    <t>194.04</t>
-  </si>
-  <si>
-    <t>20.40</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>82.87</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
     <t>71.57</t>
   </si>
   <si>
-    <t>18.06</t>
-  </si>
-  <si>
     <t>28.30</t>
   </si>
   <si>
-    <t>17.05</t>
-  </si>
-  <si>
-    <t>26.57</t>
-  </si>
-  <si>
-    <t>14.53</t>
-  </si>
-  <si>
-    <t>48.01</t>
-  </si>
-  <si>
-    <t>49.54</t>
-  </si>
-  <si>
     <t>15.63</t>
   </si>
   <si>
-    <t>51.55</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>15.41</t>
-  </si>
-  <si>
     <t>52.59</t>
   </si>
   <si>
-    <t>9.38</t>
-  </si>
-  <si>
-    <t>52.85</t>
-  </si>
-  <si>
-    <t>55.92</t>
-  </si>
-  <si>
-    <t>57.26</t>
-  </si>
-  <si>
     <t>15.75</t>
   </si>
   <si>
-    <t>64.36</t>
-  </si>
-  <si>
-    <t>72.47</t>
-  </si>
-  <si>
-    <t>79.70</t>
-  </si>
-  <si>
     <t>21.10</t>
   </si>
   <si>
-    <t>22.09</t>
-  </si>
-  <si>
-    <t>22.79</t>
-  </si>
-  <si>
-    <t>98.13</t>
-  </si>
-  <si>
     <t>23.37</t>
   </si>
   <si>
-    <t>23.29</t>
-  </si>
-  <si>
     <t>57.53</t>
   </si>
   <si>
-    <t>22.84</t>
-  </si>
-  <si>
-    <t>47.49</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>4.39</t>
   </si>
   <si>
     <t>55.01</t>
   </si>
   <si>
-    <t>21.23</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>20.59</t>
-  </si>
-  <si>
-    <t>6.44</t>
-  </si>
-  <si>
-    <t>18.66</t>
-  </si>
-  <si>
-    <t>48.95</t>
-  </si>
-  <si>
-    <t>12.83</t>
-  </si>
-  <si>
     <t>12.21</t>
   </si>
   <si>
-    <t>47.82</t>
-  </si>
-  <si>
-    <t>46.01</t>
-  </si>
-  <si>
-    <t>14.02</t>
-  </si>
-  <si>
-    <t>48.12</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>51.84</t>
-  </si>
-  <si>
-    <t>10.09</t>
-  </si>
-  <si>
     <t>62.35</t>
   </si>
   <si>
-    <t>75.07</t>
-  </si>
-  <si>
-    <t>19.17</t>
-  </si>
-  <si>
-    <t>81.25</t>
-  </si>
-  <si>
-    <t>21.04</t>
-  </si>
-  <si>
     <t>95.71</t>
   </si>
   <si>
     <t>22.53</t>
   </si>
   <si>
-    <t>23.53</t>
-  </si>
-  <si>
-    <t>144.46</t>
-  </si>
-  <si>
-    <t>24.08</t>
-  </si>
-  <si>
-    <t>24.39</t>
-  </si>
-  <si>
-    <t>24.42</t>
-  </si>
-  <si>
-    <t>296.57</t>
-  </si>
-  <si>
-    <t>24.26</t>
-  </si>
-  <si>
-    <t>294.44</t>
-  </si>
-  <si>
-    <t>23.75</t>
-  </si>
-  <si>
-    <t>22.95</t>
-  </si>
-  <si>
     <t>22.38</t>
   </si>
   <si>
-    <t>300.96</t>
-  </si>
-  <si>
-    <t>21.40</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>4.09</t>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>241.31</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>234.34</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>15.28</t>
+  </si>
+  <si>
+    <t>214.44</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>197.20</t>
+  </si>
+  <si>
+    <t>20.52</t>
+  </si>
+  <si>
+    <t>201.61</t>
+  </si>
+  <si>
+    <t>25.96</t>
+  </si>
+  <si>
+    <t>199.44</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>29.64</t>
+  </si>
+  <si>
+    <t>204.39</t>
+  </si>
+  <si>
+    <t>31.94</t>
+  </si>
+  <si>
+    <t>219.97</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>33.27</t>
+  </si>
+  <si>
+    <t>215.75</t>
+  </si>
+  <si>
+    <t>36.37</t>
+  </si>
+  <si>
+    <t>211.64</t>
+  </si>
+  <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>33.61</t>
+  </si>
+  <si>
+    <t>224.13</t>
+  </si>
+  <si>
+    <t>12.61</t>
+  </si>
+  <si>
+    <t>35.49</t>
+  </si>
+  <si>
+    <t>220.48</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t>34.95</t>
+  </si>
+  <si>
+    <t>221.24</t>
+  </si>
+  <si>
+    <t>12.43</t>
+  </si>
+  <si>
+    <t>35.90</t>
+  </si>
+  <si>
+    <t>223.78</t>
+  </si>
+  <si>
+    <t>36.41</t>
+  </si>
+  <si>
+    <t>223.80</t>
+  </si>
+  <si>
+    <t>34.62</t>
+  </si>
+  <si>
+    <t>224.16</t>
+  </si>
+  <si>
+    <t>11.60</t>
+  </si>
+  <si>
+    <t>30.95</t>
+  </si>
+  <si>
+    <t>240.75</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>247.83</t>
+  </si>
+  <si>
+    <t>10.58</t>
+  </si>
+  <si>
+    <t>27.28</t>
+  </si>
+  <si>
+    <t>247.50</t>
+  </si>
+  <si>
+    <t>26.61</t>
+  </si>
+  <si>
+    <t>246.90</t>
+  </si>
+  <si>
+    <t>27.56</t>
+  </si>
+  <si>
+    <t>250.14</t>
+  </si>
+  <si>
+    <t>26.73</t>
+  </si>
+  <si>
+    <t>244.47</t>
+  </si>
+  <si>
+    <t>26.12</t>
+  </si>
+  <si>
+    <t>240.26</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>21.53</t>
+  </si>
+  <si>
+    <t>231.79</t>
+  </si>
+  <si>
+    <t>29.87</t>
+  </si>
+  <si>
+    <t>254.62</t>
+  </si>
+  <si>
+    <t>25.62</t>
+  </si>
+  <si>
+    <t>252.84</t>
+  </si>
+  <si>
+    <t>23.26</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>244.26</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>245.34</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>24.82</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>25.12</t>
+  </si>
+  <si>
+    <t>8.34</t>
+  </si>
+  <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>239.17</t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>237.17</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>33.14</t>
+  </si>
+  <si>
+    <t>252.94</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>35.46</t>
+  </si>
+  <si>
+    <t>254.69</t>
+  </si>
+  <si>
+    <t>10.75</t>
+  </si>
+  <si>
+    <t>34.10</t>
+  </si>
+  <si>
+    <t>259.05</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>33.56</t>
+  </si>
+  <si>
+    <t>260.74</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>31.01</t>
+  </si>
+  <si>
+    <t>260.65</t>
+  </si>
+  <si>
+    <t>27.61</t>
+  </si>
+  <si>
+    <t>257.96</t>
+  </si>
+  <si>
+    <t>24.45</t>
+  </si>
+  <si>
+    <t>256.37</t>
+  </si>
+  <si>
+    <t>21.31</t>
+  </si>
+  <si>
+    <t>254.32</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>19.14</t>
+  </si>
+  <si>
+    <t>253.61</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>17.81</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>258.96</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>262.50</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>268.21</t>
+  </si>
+  <si>
+    <t>267.88</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>264.56</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>287.35</t>
+  </si>
+  <si>
+    <t>281.89</t>
+  </si>
+  <si>
+    <t>12.93</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>16.32</t>
+  </si>
+  <si>
+    <t>320.39</t>
+  </si>
+  <si>
+    <t>323.47</t>
+  </si>
+  <si>
+    <t>319.64</t>
+  </si>
+  <si>
+    <t>321.71</t>
+  </si>
+  <si>
+    <t>16.83</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>335.56</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>29.36</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>38.16</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>47.12</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>8.94</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>36.87</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>30.58</t>
+  </si>
+  <si>
+    <t>31.33</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>37.69</t>
+  </si>
+  <si>
+    <t>49.40</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>16.04</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>113.96</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>126.87</t>
+  </si>
+  <si>
+    <t>19.31</t>
+  </si>
+  <si>
+    <t>20.27</t>
+  </si>
+  <si>
+    <t>21.16</t>
+  </si>
+  <si>
+    <t>21.11</t>
+  </si>
+  <si>
+    <t>20.71</t>
+  </si>
+  <si>
+    <t>20.02</t>
+  </si>
+  <si>
+    <t>40.60</t>
+  </si>
+  <si>
+    <t>34.99</t>
+  </si>
+  <si>
+    <t>17.49</t>
+  </si>
+  <si>
+    <t>19.44</t>
+  </si>
+  <si>
+    <t>15.26</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>49.64</t>
+  </si>
+  <si>
+    <t>45.78</t>
+  </si>
+  <si>
+    <t>48.37</t>
+  </si>
+  <si>
+    <t>54.61</t>
+  </si>
+  <si>
+    <t>55.56</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>54.64</t>
+  </si>
+  <si>
+    <t>53.47</t>
+  </si>
+  <si>
+    <t>12.97</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>74.05</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>19.90</t>
+  </si>
+  <si>
+    <t>99.46</t>
+  </si>
+  <si>
+    <t>22.13</t>
+  </si>
+  <si>
+    <t>22.92</t>
+  </si>
+  <si>
+    <t>23.42</t>
+  </si>
+  <si>
+    <t>23.59</t>
+  </si>
+  <si>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>22.14</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>8.59</t>
+  </si>
+  <si>
+    <t>33.02</t>
+  </si>
+  <si>
+    <t>18.33</t>
+  </si>
+  <si>
+    <t>13.82</t>
+  </si>
+  <si>
+    <t>42.65</t>
+  </si>
+  <si>
+    <t>12.75</t>
+  </si>
+  <si>
+    <t>47.35</t>
+  </si>
+  <si>
+    <t>51.15</t>
+  </si>
+  <si>
+    <t>59.62</t>
+  </si>
+  <si>
+    <t>10.40</t>
+  </si>
+  <si>
+    <t>62.59</t>
+  </si>
+  <si>
+    <t>77.91</t>
+  </si>
+  <si>
+    <t>94.40</t>
+  </si>
+  <si>
+    <t>19.10</t>
+  </si>
+  <si>
+    <t>112.62</t>
+  </si>
+  <si>
+    <t>21.09</t>
+  </si>
+  <si>
+    <t>23.55</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>24.46</t>
+  </si>
+  <si>
+    <t>341.57</t>
+  </si>
+  <si>
+    <t>23.70</t>
+  </si>
+  <si>
+    <t>6.62</t>
+  </si>
+  <si>
+    <t>337.62</t>
+  </si>
+  <si>
+    <t>21.34</t>
+  </si>
+  <si>
+    <t>18.54</t>
+  </si>
+  <si>
+    <t>25.56</t>
+  </si>
+  <si>
+    <t>13.85</t>
+  </si>
+  <si>
+    <t>35.54</t>
+  </si>
+  <si>
+    <t>12.16</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>59.74</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>11.88</t>
+  </si>
+  <si>
+    <t>83.29</t>
+  </si>
+  <si>
+    <t>16.26</t>
+  </si>
+  <si>
+    <t>119.05</t>
+  </si>
+  <si>
+    <t>21.05</t>
+  </si>
+  <si>
+    <t>138.81</t>
+  </si>
+  <si>
+    <t>24.09</t>
+  </si>
+  <si>
+    <t>24.59</t>
+  </si>
+  <si>
+    <t>322.43</t>
+  </si>
+  <si>
+    <t>24.78</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>329.04</t>
+  </si>
+  <si>
+    <t>24.68</t>
+  </si>
+  <si>
+    <t>328.39</t>
+  </si>
+  <si>
+    <t>24.43</t>
+  </si>
+  <si>
+    <t>23.98</t>
+  </si>
+  <si>
+    <t>23.22</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>22.72</t>
+  </si>
+  <si>
+    <t>102.99</t>
+  </si>
+  <si>
+    <t>21.45</t>
+  </si>
+  <si>
+    <t>62.10</t>
   </si>
 </sst>
 </file>
@@ -5587,10 +5740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA5D867-106C-C542-80CD-7B1BFE45F3D5}">
-  <dimension ref="A1:I817"/>
+  <dimension ref="A1:I841"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I817"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25216,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="F677" t="s">
-        <v>454</v>
+        <v>1544</v>
       </c>
       <c r="G677" t="s">
         <v>10</v>
       </c>
       <c r="H677" t="s">
-        <v>543</v>
+        <v>1206</v>
       </c>
       <c r="I677" t="s">
-        <v>544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
@@ -25245,16 +25398,16 @@
         <v>0</v>
       </c>
       <c r="F678" t="s">
-        <v>1508</v>
+        <v>1546</v>
       </c>
       <c r="G678" t="s">
-        <v>10</v>
+        <v>428</v>
       </c>
       <c r="H678" t="s">
-        <v>1509</v>
+        <v>1404</v>
       </c>
       <c r="I678" t="s">
-        <v>410</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
@@ -25274,16 +25427,16 @@
         <v>0</v>
       </c>
       <c r="F679" t="s">
-        <v>523</v>
+        <v>1548</v>
       </c>
       <c r="G679" t="s">
         <v>10</v>
       </c>
       <c r="H679" t="s">
-        <v>207</v>
+        <v>753</v>
       </c>
       <c r="I679" t="s">
-        <v>630</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
@@ -25303,16 +25456,16 @@
         <v>0</v>
       </c>
       <c r="F680" t="s">
-        <v>1508</v>
+        <v>1549</v>
       </c>
       <c r="G680" t="s">
         <v>10</v>
       </c>
       <c r="H680" t="s">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="I680" t="s">
-        <v>1510</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
@@ -25332,16 +25485,16 @@
         <v>0</v>
       </c>
       <c r="F681" t="s">
-        <v>1511</v>
+        <v>1552</v>
       </c>
       <c r="G681" t="s">
         <v>10</v>
       </c>
       <c r="H681" t="s">
-        <v>1248</v>
+        <v>990</v>
       </c>
       <c r="I681" t="s">
-        <v>121</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
@@ -25361,16 +25514,16 @@
         <v>0</v>
       </c>
       <c r="F682" t="s">
-        <v>1512</v>
+        <v>406</v>
       </c>
       <c r="G682" t="s">
-        <v>125</v>
+        <v>421</v>
       </c>
       <c r="H682" t="s">
-        <v>579</v>
+        <v>1554</v>
       </c>
       <c r="I682" t="s">
-        <v>1513</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
@@ -25390,16 +25543,16 @@
         <v>0</v>
       </c>
       <c r="F683" t="s">
-        <v>1514</v>
+        <v>997</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>10</v>
       </c>
       <c r="H683" t="s">
-        <v>1109</v>
+        <v>1556</v>
       </c>
       <c r="I683" t="s">
-        <v>1515</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
@@ -25419,16 +25572,16 @@
         <v>0</v>
       </c>
       <c r="F684" t="s">
-        <v>903</v>
+        <v>1558</v>
       </c>
       <c r="G684" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="H684" t="s">
-        <v>1516</v>
+        <v>1559</v>
       </c>
       <c r="I684" t="s">
-        <v>1517</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
@@ -25448,16 +25601,16 @@
         <v>0</v>
       </c>
       <c r="F685" t="s">
-        <v>1518</v>
+        <v>531</v>
       </c>
       <c r="G685" t="s">
-        <v>582</v>
+        <v>428</v>
       </c>
       <c r="H685" t="s">
-        <v>1519</v>
+        <v>1561</v>
       </c>
       <c r="I685" t="s">
-        <v>1520</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
@@ -25477,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="F686" t="s">
-        <v>328</v>
+        <v>1563</v>
       </c>
       <c r="G686" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="H686" t="s">
-        <v>1521</v>
+        <v>1564</v>
       </c>
       <c r="I686" t="s">
-        <v>375</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
@@ -25506,16 +25659,16 @@
         <v>0</v>
       </c>
       <c r="F687" t="s">
-        <v>1522</v>
+        <v>425</v>
       </c>
       <c r="G687" t="s">
-        <v>1209</v>
+        <v>428</v>
       </c>
       <c r="H687" t="s">
-        <v>1523</v>
+        <v>1566</v>
       </c>
       <c r="I687" t="s">
-        <v>360</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
@@ -25535,16 +25688,16 @@
         <v>0</v>
       </c>
       <c r="F688" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="G688" t="s">
         <v>1209</v>
       </c>
       <c r="H688" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="I688" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
@@ -25564,16 +25717,16 @@
         <v>0</v>
       </c>
       <c r="F689" t="s">
-        <v>176</v>
+        <v>1568</v>
       </c>
       <c r="G689" t="s">
-        <v>1209</v>
+        <v>582</v>
       </c>
       <c r="H689" t="s">
-        <v>1527</v>
+        <v>1569</v>
       </c>
       <c r="I689" t="s">
-        <v>1528</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
@@ -25593,16 +25746,16 @@
         <v>0</v>
       </c>
       <c r="F690" t="s">
-        <v>514</v>
+        <v>1571</v>
       </c>
       <c r="G690" t="s">
-        <v>520</v>
+        <v>125</v>
       </c>
       <c r="H690" t="s">
-        <v>487</v>
+        <v>1572</v>
       </c>
       <c r="I690" t="s">
-        <v>1529</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
@@ -25622,16 +25775,16 @@
         <v>0</v>
       </c>
       <c r="F691" t="s">
-        <v>842</v>
+        <v>1574</v>
       </c>
       <c r="G691" t="s">
-        <v>1254</v>
+        <v>418</v>
       </c>
       <c r="H691" t="s">
-        <v>1530</v>
+        <v>1575</v>
       </c>
       <c r="I691" t="s">
-        <v>1531</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
@@ -25651,16 +25804,16 @@
         <v>0</v>
       </c>
       <c r="F692" t="s">
-        <v>1532</v>
+        <v>1577</v>
       </c>
       <c r="G692" t="s">
-        <v>1044</v>
+        <v>520</v>
       </c>
       <c r="H692" t="s">
-        <v>1533</v>
+        <v>1578</v>
       </c>
       <c r="I692" t="s">
-        <v>1534</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
@@ -25680,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="F693" t="s">
-        <v>536</v>
+        <v>1574</v>
       </c>
       <c r="G693" t="s">
-        <v>1244</v>
+        <v>418</v>
       </c>
       <c r="H693" t="s">
-        <v>1535</v>
+        <v>1580</v>
       </c>
       <c r="I693" t="s">
-        <v>1536</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
@@ -25709,16 +25862,16 @@
         <v>0</v>
       </c>
       <c r="F694" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="G694" t="s">
-        <v>125</v>
+        <v>1209</v>
       </c>
       <c r="H694" t="s">
-        <v>1538</v>
+        <v>1582</v>
       </c>
       <c r="I694" t="s">
-        <v>1539</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
@@ -25738,16 +25891,16 @@
         <v>0</v>
       </c>
       <c r="F695" t="s">
-        <v>1297</v>
+        <v>1584</v>
       </c>
       <c r="G695" t="s">
-        <v>582</v>
+        <v>1262</v>
       </c>
       <c r="H695" t="s">
-        <v>1540</v>
+        <v>1585</v>
       </c>
       <c r="I695" t="s">
-        <v>1541</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
@@ -25767,16 +25920,16 @@
         <v>0</v>
       </c>
       <c r="F696" t="s">
-        <v>1542</v>
+        <v>1587</v>
       </c>
       <c r="G696" t="s">
-        <v>582</v>
+        <v>125</v>
       </c>
       <c r="H696" t="s">
-        <v>1543</v>
+        <v>1588</v>
       </c>
       <c r="I696" t="s">
-        <v>1544</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
@@ -25796,16 +25949,16 @@
         <v>0</v>
       </c>
       <c r="F697" t="s">
-        <v>1545</v>
+        <v>1590</v>
       </c>
       <c r="G697" t="s">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="H697" t="s">
-        <v>1546</v>
+        <v>1591</v>
       </c>
       <c r="I697" t="s">
-        <v>1547</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.2">
@@ -25825,16 +25978,16 @@
         <v>0</v>
       </c>
       <c r="F698" t="s">
-        <v>534</v>
+        <v>346</v>
       </c>
       <c r="G698" t="s">
-        <v>1209</v>
+        <v>125</v>
       </c>
       <c r="H698" t="s">
-        <v>1548</v>
+        <v>1593</v>
       </c>
       <c r="I698" t="s">
-        <v>1549</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
@@ -25854,16 +26007,16 @@
         <v>0</v>
       </c>
       <c r="F699" t="s">
-        <v>1550</v>
+        <v>368</v>
       </c>
       <c r="G699" t="s">
-        <v>1262</v>
+        <v>125</v>
       </c>
       <c r="H699" t="s">
-        <v>1551</v>
+        <v>1595</v>
       </c>
       <c r="I699" t="s">
-        <v>1552</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.2">
@@ -25883,16 +26036,16 @@
         <v>0</v>
       </c>
       <c r="F700" t="s">
-        <v>1553</v>
+        <v>677</v>
       </c>
       <c r="G700" t="s">
-        <v>1270</v>
+        <v>10</v>
       </c>
       <c r="H700" t="s">
-        <v>1554</v>
+        <v>1597</v>
       </c>
       <c r="I700" t="s">
-        <v>1555</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.2">
@@ -25912,16 +26065,16 @@
         <v>0</v>
       </c>
       <c r="F701" t="s">
-        <v>1556</v>
+        <v>1515</v>
       </c>
       <c r="G701" t="s">
-        <v>1209</v>
+        <v>10</v>
       </c>
       <c r="H701" t="s">
-        <v>1557</v>
+        <v>1599</v>
       </c>
       <c r="I701" t="s">
-        <v>1558</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.2">
@@ -25941,16 +26094,16 @@
         <v>0</v>
       </c>
       <c r="F702" t="s">
-        <v>1559</v>
+        <v>1601</v>
       </c>
       <c r="G702" t="s">
         <v>10</v>
       </c>
       <c r="H702" t="s">
-        <v>1533</v>
+        <v>1602</v>
       </c>
       <c r="I702" t="s">
-        <v>1560</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.2">
@@ -25970,16 +26123,16 @@
         <v>0</v>
       </c>
       <c r="F703" t="s">
-        <v>171</v>
+        <v>456</v>
       </c>
       <c r="G703" t="s">
         <v>10</v>
       </c>
       <c r="H703" t="s">
-        <v>1561</v>
+        <v>1604</v>
       </c>
       <c r="I703" t="s">
-        <v>1562</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.2">
@@ -25999,16 +26152,16 @@
         <v>0</v>
       </c>
       <c r="F704" t="s">
-        <v>1563</v>
+        <v>402</v>
       </c>
       <c r="G704" t="s">
-        <v>10</v>
+        <v>589</v>
       </c>
       <c r="H704" t="s">
-        <v>1564</v>
+        <v>1606</v>
       </c>
       <c r="I704" t="s">
-        <v>806</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.2">
@@ -26028,16 +26181,16 @@
         <v>0</v>
       </c>
       <c r="F705" t="s">
-        <v>1565</v>
+        <v>970</v>
       </c>
       <c r="G705" t="s">
         <v>10</v>
       </c>
       <c r="H705" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="I705" t="s">
-        <v>1567</v>
+        <v>600</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.2">
@@ -26057,16 +26210,16 @@
         <v>0</v>
       </c>
       <c r="F706" t="s">
-        <v>1568</v>
+        <v>1609</v>
       </c>
       <c r="G706" t="s">
         <v>10</v>
       </c>
       <c r="H706" t="s">
-        <v>1569</v>
+        <v>1543</v>
       </c>
       <c r="I706" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.2">
@@ -26086,16 +26239,16 @@
         <v>0</v>
       </c>
       <c r="F707" t="s">
-        <v>399</v>
+        <v>1611</v>
       </c>
       <c r="G707" t="s">
         <v>10</v>
       </c>
       <c r="H707" t="s">
-        <v>487</v>
+        <v>1509</v>
       </c>
       <c r="I707" t="s">
-        <v>1571</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.2">
@@ -26115,16 +26268,16 @@
         <v>0</v>
       </c>
       <c r="F708" t="s">
-        <v>1572</v>
+        <v>1613</v>
       </c>
       <c r="G708" t="s">
         <v>10</v>
       </c>
       <c r="H708" t="s">
-        <v>1573</v>
+        <v>1614</v>
       </c>
       <c r="I708" t="s">
-        <v>1574</v>
+        <v>442</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.2">
@@ -26144,16 +26297,16 @@
         <v>0</v>
       </c>
       <c r="F709" t="s">
-        <v>1575</v>
+        <v>1615</v>
       </c>
       <c r="G709" t="s">
         <v>10</v>
       </c>
       <c r="H709" t="s">
-        <v>1576</v>
+        <v>1616</v>
       </c>
       <c r="I709" t="s">
-        <v>1577</v>
+        <v>627</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.2">
@@ -26173,16 +26326,16 @@
         <v>0</v>
       </c>
       <c r="F710" t="s">
-        <v>159</v>
+        <v>1617</v>
       </c>
       <c r="G710" t="s">
         <v>10</v>
       </c>
       <c r="H710" t="s">
-        <v>1481</v>
+        <v>1618</v>
       </c>
       <c r="I710" t="s">
-        <v>1482</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.2">
@@ -26202,16 +26355,16 @@
         <v>0</v>
       </c>
       <c r="F711" t="s">
-        <v>808</v>
+        <v>1620</v>
       </c>
       <c r="G711" t="s">
         <v>10</v>
       </c>
       <c r="H711" t="s">
-        <v>1578</v>
+        <v>1322</v>
       </c>
       <c r="I711" t="s">
-        <v>1579</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.2">
@@ -26231,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="F712" t="s">
-        <v>1580</v>
+        <v>1516</v>
       </c>
       <c r="G712" t="s">
         <v>421</v>
       </c>
       <c r="H712" t="s">
-        <v>1581</v>
+        <v>1517</v>
       </c>
       <c r="I712" t="s">
-        <v>1582</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.2">
@@ -26260,16 +26413,16 @@
         <v>0</v>
       </c>
       <c r="F713" t="s">
-        <v>1583</v>
+        <v>1622</v>
       </c>
       <c r="G713" t="s">
         <v>10</v>
       </c>
       <c r="H713" t="s">
-        <v>1584</v>
+        <v>1623</v>
       </c>
       <c r="I713" t="s">
-        <v>566</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.2">
@@ -26289,16 +26442,16 @@
         <v>0</v>
       </c>
       <c r="F714" t="s">
-        <v>1585</v>
+        <v>266</v>
       </c>
       <c r="G714" t="s">
         <v>428</v>
       </c>
       <c r="H714" t="s">
-        <v>1586</v>
+        <v>1625</v>
       </c>
       <c r="I714" t="s">
-        <v>1587</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.2">
@@ -26318,16 +26471,16 @@
         <v>0</v>
       </c>
       <c r="F715" t="s">
-        <v>521</v>
+        <v>75</v>
       </c>
       <c r="G715" t="s">
-        <v>10</v>
+        <v>428</v>
       </c>
       <c r="H715" t="s">
-        <v>1344</v>
+        <v>1626</v>
       </c>
       <c r="I715" t="s">
-        <v>1588</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.2">
@@ -26347,16 +26500,16 @@
         <v>0</v>
       </c>
       <c r="F716" t="s">
-        <v>1589</v>
+        <v>1628</v>
       </c>
       <c r="G716" t="s">
         <v>10</v>
       </c>
       <c r="H716" t="s">
-        <v>1590</v>
+        <v>1629</v>
       </c>
       <c r="I716" t="s">
-        <v>1591</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.2">
@@ -26376,16 +26529,16 @@
         <v>0</v>
       </c>
       <c r="F717" t="s">
-        <v>1592</v>
+        <v>1631</v>
       </c>
       <c r="G717" t="s">
         <v>10</v>
       </c>
       <c r="H717" t="s">
-        <v>1533</v>
+        <v>1632</v>
       </c>
       <c r="I717" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.2">
@@ -26405,16 +26558,16 @@
         <v>0</v>
       </c>
       <c r="F718" t="s">
-        <v>1594</v>
+        <v>1634</v>
       </c>
       <c r="G718" t="s">
         <v>10</v>
       </c>
       <c r="H718" t="s">
-        <v>1595</v>
+        <v>1635</v>
       </c>
       <c r="I718" t="s">
-        <v>1596</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.2">
@@ -26434,16 +26587,16 @@
         <v>0</v>
       </c>
       <c r="F719" t="s">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="G719" t="s">
         <v>10</v>
       </c>
       <c r="H719" t="s">
-        <v>1597</v>
+        <v>1637</v>
       </c>
       <c r="I719" t="s">
-        <v>1598</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.2">
@@ -26463,16 +26616,16 @@
         <v>0</v>
       </c>
       <c r="F720" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="G720" t="s">
         <v>10</v>
       </c>
       <c r="H720" t="s">
-        <v>1599</v>
+        <v>1639</v>
       </c>
       <c r="I720" t="s">
-        <v>1600</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.2">
@@ -26492,16 +26645,16 @@
         <v>0</v>
       </c>
       <c r="F721" t="s">
-        <v>1575</v>
+        <v>1150</v>
       </c>
       <c r="G721" t="s">
         <v>10</v>
       </c>
       <c r="H721" t="s">
-        <v>1601</v>
+        <v>1641</v>
       </c>
       <c r="I721" t="s">
-        <v>806</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.2">
@@ -26521,16 +26674,16 @@
         <v>0</v>
       </c>
       <c r="F722" t="s">
-        <v>1377</v>
+        <v>1643</v>
       </c>
       <c r="G722" t="s">
         <v>10</v>
       </c>
       <c r="H722" t="s">
-        <v>878</v>
+        <v>1644</v>
       </c>
       <c r="I722" t="s">
-        <v>1602</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.2">
@@ -26550,16 +26703,16 @@
         <v>0</v>
       </c>
       <c r="F723" t="s">
-        <v>1603</v>
+        <v>1646</v>
       </c>
       <c r="G723" t="s">
         <v>10</v>
       </c>
       <c r="H723" t="s">
-        <v>1604</v>
+        <v>549</v>
       </c>
       <c r="I723" t="s">
-        <v>1605</v>
+        <v>550</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.2">
@@ -26579,16 +26732,16 @@
         <v>0</v>
       </c>
       <c r="F724" t="s">
-        <v>1606</v>
+        <v>1647</v>
       </c>
       <c r="G724" t="s">
         <v>10</v>
       </c>
       <c r="H724" t="s">
-        <v>930</v>
+        <v>1648</v>
       </c>
       <c r="I724" t="s">
-        <v>1607</v>
+        <v>806</v>
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.2">
@@ -26608,16 +26761,16 @@
         <v>0</v>
       </c>
       <c r="F725" t="s">
-        <v>860</v>
+        <v>1649</v>
       </c>
       <c r="G725" t="s">
         <v>10</v>
       </c>
       <c r="H725" t="s">
-        <v>472</v>
+        <v>940</v>
       </c>
       <c r="I725" t="s">
-        <v>1608</v>
+        <v>800</v>
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.2">
@@ -26637,16 +26790,16 @@
         <v>0</v>
       </c>
       <c r="F726" t="s">
-        <v>90</v>
+        <v>1537</v>
       </c>
       <c r="G726" t="s">
         <v>10</v>
       </c>
       <c r="H726" t="s">
-        <v>1609</v>
+        <v>364</v>
       </c>
       <c r="I726" t="s">
-        <v>1610</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.2">
@@ -26666,16 +26819,16 @@
         <v>0</v>
       </c>
       <c r="F727" t="s">
-        <v>1504</v>
+        <v>1651</v>
       </c>
       <c r="G727" t="s">
         <v>10</v>
       </c>
       <c r="H727" t="s">
-        <v>1611</v>
+        <v>545</v>
       </c>
       <c r="I727" t="s">
-        <v>1612</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.2">
@@ -26695,16 +26848,16 @@
         <v>0</v>
       </c>
       <c r="F728" t="s">
-        <v>1613</v>
+        <v>1653</v>
       </c>
       <c r="G728" t="s">
         <v>10</v>
       </c>
       <c r="H728" t="s">
-        <v>1614</v>
+        <v>1068</v>
       </c>
       <c r="I728" t="s">
-        <v>1615</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.2">
@@ -26724,16 +26877,16 @@
         <v>0</v>
       </c>
       <c r="F729" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="G729" t="s">
         <v>10</v>
       </c>
       <c r="H729" t="s">
-        <v>1589</v>
+        <v>156</v>
       </c>
       <c r="I729" t="s">
-        <v>1616</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.2">
@@ -26753,16 +26906,16 @@
         <v>0</v>
       </c>
       <c r="F730" t="s">
-        <v>928</v>
+        <v>1656</v>
       </c>
       <c r="G730" t="s">
         <v>10</v>
       </c>
       <c r="H730" t="s">
-        <v>1617</v>
+        <v>902</v>
       </c>
       <c r="I730" t="s">
-        <v>1618</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.2">
@@ -26782,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="F731" t="s">
-        <v>1619</v>
+        <v>1658</v>
       </c>
       <c r="G731" t="s">
         <v>10</v>
       </c>
       <c r="H731" t="s">
-        <v>210</v>
+        <v>403</v>
       </c>
       <c r="I731" t="s">
-        <v>1620</v>
+        <v>404</v>
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.2">
@@ -26811,16 +26964,16 @@
         <v>0</v>
       </c>
       <c r="F732" t="s">
-        <v>1183</v>
+        <v>1659</v>
       </c>
       <c r="G732" t="s">
         <v>10</v>
       </c>
       <c r="H732" t="s">
-        <v>388</v>
+        <v>1508</v>
       </c>
       <c r="I732" t="s">
-        <v>1621</v>
+        <v>715</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.2">
@@ -26840,16 +26993,16 @@
         <v>0</v>
       </c>
       <c r="F733" t="s">
-        <v>1622</v>
+        <v>1485</v>
       </c>
       <c r="G733" t="s">
         <v>10</v>
       </c>
       <c r="H733" t="s">
-        <v>1435</v>
+        <v>1660</v>
       </c>
       <c r="I733" t="s">
-        <v>423</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.2">
@@ -26869,16 +27022,16 @@
         <v>0</v>
       </c>
       <c r="F734" t="s">
-        <v>1623</v>
+        <v>1068</v>
       </c>
       <c r="G734" t="s">
         <v>10</v>
       </c>
       <c r="H734" t="s">
-        <v>1624</v>
+        <v>105</v>
       </c>
       <c r="I734" t="s">
-        <v>1625</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.2">
@@ -26898,16 +27051,16 @@
         <v>0</v>
       </c>
       <c r="F735" t="s">
-        <v>1449</v>
+        <v>1663</v>
       </c>
       <c r="G735" t="s">
         <v>10</v>
       </c>
       <c r="H735" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I735" t="s">
-        <v>1626</v>
+        <v>471</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.2">
@@ -26927,16 +27080,16 @@
         <v>0</v>
       </c>
       <c r="F736" t="s">
-        <v>1627</v>
+        <v>1519</v>
       </c>
       <c r="G736" t="s">
         <v>10</v>
       </c>
       <c r="H736" t="s">
-        <v>1628</v>
+        <v>1520</v>
       </c>
       <c r="I736" t="s">
-        <v>1629</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.2">
@@ -26956,16 +27109,16 @@
         <v>0</v>
       </c>
       <c r="F737" t="s">
-        <v>1630</v>
+        <v>1531</v>
       </c>
       <c r="G737" t="s">
         <v>10</v>
       </c>
       <c r="H737" t="s">
-        <v>1278</v>
+        <v>937</v>
       </c>
       <c r="I737" t="s">
-        <v>690</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.2">
@@ -26985,16 +27138,16 @@
         <v>0</v>
       </c>
       <c r="F738" t="s">
-        <v>1631</v>
+        <v>1665</v>
       </c>
       <c r="G738" t="s">
         <v>10</v>
       </c>
       <c r="H738" t="s">
-        <v>1632</v>
+        <v>175</v>
       </c>
       <c r="I738" t="s">
-        <v>1633</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.2">
@@ -27014,16 +27167,16 @@
         <v>0</v>
       </c>
       <c r="F739" t="s">
-        <v>192</v>
+        <v>586</v>
       </c>
       <c r="G739" t="s">
         <v>10</v>
       </c>
       <c r="H739" t="s">
-        <v>266</v>
+        <v>416</v>
       </c>
       <c r="I739" t="s">
-        <v>1634</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.2">
@@ -27043,16 +27196,16 @@
         <v>0</v>
       </c>
       <c r="F740" t="s">
-        <v>1635</v>
+        <v>982</v>
       </c>
       <c r="G740" t="s">
         <v>10</v>
       </c>
       <c r="H740" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I740" t="s">
-        <v>1636</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.2">
@@ -27072,16 +27225,16 @@
         <v>0</v>
       </c>
       <c r="F741" t="s">
-        <v>1637</v>
+        <v>1443</v>
       </c>
       <c r="G741" t="s">
         <v>10</v>
       </c>
       <c r="H741" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="I741" t="s">
-        <v>1638</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.2">
@@ -27101,16 +27254,16 @@
         <v>0</v>
       </c>
       <c r="F742" t="s">
-        <v>1639</v>
+        <v>1670</v>
       </c>
       <c r="G742" t="s">
         <v>10</v>
       </c>
       <c r="H742" t="s">
-        <v>1239</v>
+        <v>1671</v>
       </c>
       <c r="I742" t="s">
-        <v>1640</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.2">
@@ -27130,16 +27283,16 @@
         <v>0</v>
       </c>
       <c r="F743" t="s">
-        <v>1641</v>
+        <v>1533</v>
       </c>
       <c r="G743" t="s">
         <v>10</v>
       </c>
       <c r="H743" t="s">
-        <v>59</v>
+        <v>902</v>
       </c>
       <c r="I743" t="s">
-        <v>1642</v>
+        <v>903</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.2">
@@ -27159,16 +27312,16 @@
         <v>0</v>
       </c>
       <c r="F744" t="s">
-        <v>1643</v>
+        <v>1435</v>
       </c>
       <c r="G744" t="s">
         <v>10</v>
       </c>
       <c r="H744" t="s">
-        <v>460</v>
+        <v>1673</v>
       </c>
       <c r="I744" t="s">
-        <v>503</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.2">
@@ -27188,16 +27341,16 @@
         <v>0</v>
       </c>
       <c r="F745" t="s">
-        <v>1644</v>
+        <v>142</v>
       </c>
       <c r="G745" t="s">
         <v>10</v>
       </c>
       <c r="H745" t="s">
-        <v>383</v>
+        <v>1675</v>
       </c>
       <c r="I745" t="s">
-        <v>1007</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.2">
@@ -27217,16 +27370,16 @@
         <v>0</v>
       </c>
       <c r="F746" t="s">
-        <v>1645</v>
+        <v>1677</v>
       </c>
       <c r="G746" t="s">
         <v>10</v>
       </c>
       <c r="H746" t="s">
-        <v>409</v>
+        <v>743</v>
       </c>
       <c r="I746" t="s">
-        <v>1646</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.2">
@@ -27246,16 +27399,16 @@
         <v>0</v>
       </c>
       <c r="F747" t="s">
-        <v>150</v>
+        <v>1679</v>
       </c>
       <c r="G747" t="s">
         <v>10</v>
       </c>
       <c r="H747" t="s">
-        <v>84</v>
+        <v>1680</v>
       </c>
       <c r="I747" t="s">
-        <v>55</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.2">
@@ -27275,16 +27428,16 @@
         <v>0</v>
       </c>
       <c r="F748" t="s">
-        <v>1181</v>
+        <v>1682</v>
       </c>
       <c r="G748" t="s">
         <v>10</v>
       </c>
       <c r="H748" t="s">
-        <v>1647</v>
+        <v>286</v>
       </c>
       <c r="I748" t="s">
-        <v>1648</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.2">
@@ -27304,13 +27457,13 @@
         <v>0</v>
       </c>
       <c r="F749" t="s">
-        <v>1278</v>
+        <v>905</v>
       </c>
       <c r="G749" t="s">
         <v>10</v>
       </c>
       <c r="H749" t="s">
-        <v>931</v>
+        <v>1281</v>
       </c>
       <c r="I749" t="s">
         <v>55</v>
@@ -27333,16 +27486,16 @@
         <v>0</v>
       </c>
       <c r="F750" t="s">
-        <v>1276</v>
+        <v>1420</v>
       </c>
       <c r="G750" t="s">
         <v>10</v>
       </c>
       <c r="H750" t="s">
-        <v>438</v>
+        <v>45</v>
       </c>
       <c r="I750" t="s">
-        <v>1649</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.2">
@@ -27362,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="F751" t="s">
-        <v>1280</v>
+        <v>1684</v>
       </c>
       <c r="G751" t="s">
         <v>10</v>
       </c>
       <c r="H751" t="s">
-        <v>286</v>
+        <v>1685</v>
       </c>
       <c r="I751" t="s">
-        <v>1650</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.2">
@@ -27391,16 +27544,16 @@
         <v>0</v>
       </c>
       <c r="F752" t="s">
-        <v>1651</v>
+        <v>939</v>
       </c>
       <c r="G752" t="s">
         <v>10</v>
       </c>
       <c r="H752" t="s">
-        <v>745</v>
+        <v>283</v>
       </c>
       <c r="I752" t="s">
-        <v>1652</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.2">
@@ -27420,16 +27573,16 @@
         <v>0</v>
       </c>
       <c r="F753" t="s">
-        <v>449</v>
+        <v>1688</v>
       </c>
       <c r="G753" t="s">
         <v>10</v>
       </c>
       <c r="H753" t="s">
-        <v>745</v>
+        <v>283</v>
       </c>
       <c r="I753" t="s">
-        <v>1652</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.2">
@@ -27449,16 +27602,16 @@
         <v>0</v>
       </c>
       <c r="F754" t="s">
-        <v>743</v>
+        <v>588</v>
       </c>
       <c r="G754" t="s">
         <v>10</v>
       </c>
       <c r="H754" t="s">
-        <v>1575</v>
+        <v>1689</v>
       </c>
       <c r="I754" t="s">
-        <v>55</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.2">
@@ -27478,16 +27631,16 @@
         <v>0</v>
       </c>
       <c r="F755" t="s">
-        <v>400</v>
+        <v>755</v>
       </c>
       <c r="G755" t="s">
         <v>10</v>
       </c>
       <c r="H755" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I755" t="s">
-        <v>251</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.2">
@@ -27507,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="F756" t="s">
-        <v>470</v>
+        <v>1461</v>
       </c>
       <c r="G756" t="s">
         <v>10</v>
       </c>
       <c r="H756" t="s">
-        <v>1267</v>
+        <v>307</v>
       </c>
       <c r="I756" t="s">
-        <v>1290</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.2">
@@ -27536,16 +27689,16 @@
         <v>0</v>
       </c>
       <c r="F757" t="s">
-        <v>385</v>
+        <v>1692</v>
       </c>
       <c r="G757" t="s">
         <v>10</v>
       </c>
       <c r="H757" t="s">
-        <v>409</v>
+        <v>710</v>
       </c>
       <c r="I757" t="s">
-        <v>46</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.2">
@@ -27565,16 +27718,16 @@
         <v>0</v>
       </c>
       <c r="F758" t="s">
-        <v>1653</v>
+        <v>1693</v>
       </c>
       <c r="G758" t="s">
         <v>10</v>
       </c>
       <c r="H758" t="s">
-        <v>1654</v>
+        <v>1694</v>
       </c>
       <c r="I758" t="s">
-        <v>240</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.2">
@@ -27594,16 +27747,16 @@
         <v>0</v>
       </c>
       <c r="F759" t="s">
-        <v>1655</v>
+        <v>1696</v>
       </c>
       <c r="G759" t="s">
         <v>10</v>
       </c>
       <c r="H759" t="s">
-        <v>51</v>
+        <v>1044</v>
       </c>
       <c r="I759" t="s">
-        <v>245</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.2">
@@ -27629,7 +27782,7 @@
         <v>10</v>
       </c>
       <c r="H760" t="s">
-        <v>1656</v>
+        <v>1527</v>
       </c>
       <c r="I760" t="s">
         <v>357</v>
@@ -27652,16 +27805,16 @@
         <v>0</v>
       </c>
       <c r="F761" t="s">
-        <v>1657</v>
+        <v>1698</v>
       </c>
       <c r="G761" t="s">
         <v>10</v>
       </c>
       <c r="H761" t="s">
-        <v>131</v>
+        <v>922</v>
       </c>
       <c r="I761" t="s">
-        <v>1658</v>
+        <v>118</v>
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.2">
@@ -27681,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="F762" t="s">
-        <v>1659</v>
+        <v>1699</v>
       </c>
       <c r="G762" t="s">
         <v>10</v>
       </c>
       <c r="H762" t="s">
-        <v>1660</v>
+        <v>1528</v>
       </c>
       <c r="I762" t="s">
         <v>118</v>
@@ -27710,16 +27863,16 @@
         <v>0</v>
       </c>
       <c r="F763" t="s">
-        <v>1661</v>
+        <v>507</v>
       </c>
       <c r="G763" t="s">
         <v>10</v>
       </c>
       <c r="H763" t="s">
-        <v>1088</v>
+        <v>117</v>
       </c>
       <c r="I763" t="s">
-        <v>1662</v>
+        <v>118</v>
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.2">
@@ -27739,16 +27892,16 @@
         <v>0</v>
       </c>
       <c r="F764" t="s">
-        <v>1663</v>
+        <v>1700</v>
       </c>
       <c r="G764" t="s">
         <v>10</v>
       </c>
       <c r="H764" t="s">
-        <v>1664</v>
+        <v>1139</v>
       </c>
       <c r="I764" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.2">
@@ -27768,16 +27921,16 @@
         <v>0</v>
       </c>
       <c r="F765" t="s">
-        <v>1076</v>
+        <v>1701</v>
       </c>
       <c r="G765" t="s">
         <v>10</v>
       </c>
       <c r="H765" t="s">
-        <v>1046</v>
+        <v>123</v>
       </c>
       <c r="I765" t="s">
-        <v>1665</v>
+        <v>118</v>
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.2">
@@ -27797,16 +27950,16 @@
         <v>0</v>
       </c>
       <c r="F766" t="s">
-        <v>1462</v>
+        <v>1702</v>
       </c>
       <c r="G766" t="s">
         <v>10</v>
       </c>
       <c r="H766" t="s">
-        <v>1666</v>
+        <v>1088</v>
       </c>
       <c r="I766" t="s">
-        <v>1667</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.2">
@@ -27826,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="F767" t="s">
-        <v>1079</v>
+        <v>1703</v>
       </c>
       <c r="G767" t="s">
         <v>10</v>
       </c>
       <c r="H767" t="s">
-        <v>1098</v>
+        <v>359</v>
       </c>
       <c r="I767" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.2">
@@ -27855,16 +28008,16 @@
         <v>0</v>
       </c>
       <c r="F768" t="s">
-        <v>946</v>
+        <v>1357</v>
       </c>
       <c r="G768" t="s">
         <v>10</v>
       </c>
       <c r="H768" t="s">
-        <v>509</v>
+        <v>1084</v>
       </c>
       <c r="I768" t="s">
-        <v>34</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.2">
@@ -27884,16 +28037,16 @@
         <v>0</v>
       </c>
       <c r="F769" t="s">
-        <v>1668</v>
+        <v>791</v>
       </c>
       <c r="G769" t="s">
         <v>10</v>
       </c>
       <c r="H769" t="s">
-        <v>1054</v>
+        <v>1537</v>
       </c>
       <c r="I769" t="s">
-        <v>1669</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.2">
@@ -27913,16 +28066,16 @@
         <v>0</v>
       </c>
       <c r="F770" t="s">
-        <v>1670</v>
+        <v>1706</v>
       </c>
       <c r="G770" t="s">
         <v>10</v>
       </c>
       <c r="H770" t="s">
-        <v>463</v>
+        <v>67</v>
       </c>
       <c r="I770" t="s">
-        <v>1671</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.2">
@@ -27942,16 +28095,16 @@
         <v>0</v>
       </c>
       <c r="F771" t="s">
-        <v>858</v>
+        <v>1708</v>
       </c>
       <c r="G771" t="s">
         <v>10</v>
       </c>
       <c r="H771" t="s">
-        <v>1396</v>
+        <v>9</v>
       </c>
       <c r="I771" t="s">
-        <v>918</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.2">
@@ -27971,16 +28124,16 @@
         <v>0</v>
       </c>
       <c r="F772" t="s">
-        <v>1644</v>
+        <v>1710</v>
       </c>
       <c r="G772" t="s">
         <v>10</v>
       </c>
       <c r="H772" t="s">
-        <v>983</v>
+        <v>329</v>
       </c>
       <c r="I772" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
     </row>
     <row r="773" spans="1:9" x14ac:dyDescent="0.2">
@@ -28000,16 +28153,16 @@
         <v>0</v>
       </c>
       <c r="F773" t="s">
-        <v>290</v>
+        <v>1513</v>
       </c>
       <c r="G773" t="s">
         <v>10</v>
       </c>
       <c r="H773" t="s">
-        <v>1672</v>
+        <v>1711</v>
       </c>
       <c r="I773" t="s">
-        <v>1673</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.2">
@@ -28029,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="F774" t="s">
-        <v>1524</v>
+        <v>280</v>
       </c>
       <c r="G774" t="s">
         <v>10</v>
       </c>
       <c r="H774" t="s">
-        <v>937</v>
+        <v>14</v>
       </c>
       <c r="I774" t="s">
-        <v>55</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.2">
@@ -28058,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="F775" t="s">
-        <v>1269</v>
+        <v>845</v>
       </c>
       <c r="G775" t="s">
         <v>10</v>
       </c>
       <c r="H775" t="s">
-        <v>145</v>
+        <v>689</v>
       </c>
       <c r="I775" t="s">
-        <v>1674</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.2">
@@ -28087,16 +28240,16 @@
         <v>0</v>
       </c>
       <c r="F776" t="s">
-        <v>1421</v>
+        <v>1179</v>
       </c>
       <c r="G776" t="s">
         <v>10</v>
       </c>
       <c r="H776" t="s">
-        <v>1675</v>
+        <v>586</v>
       </c>
       <c r="I776" t="s">
-        <v>1676</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.2">
@@ -28116,16 +28269,16 @@
         <v>0</v>
       </c>
       <c r="F777" t="s">
-        <v>1677</v>
+        <v>271</v>
       </c>
       <c r="G777" t="s">
         <v>10</v>
       </c>
       <c r="H777" t="s">
-        <v>1678</v>
+        <v>1550</v>
       </c>
       <c r="I777" t="s">
-        <v>1679</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.2">
@@ -28145,16 +28298,16 @@
         <v>0</v>
       </c>
       <c r="F778" t="s">
-        <v>1680</v>
+        <v>1717</v>
       </c>
       <c r="G778" t="s">
         <v>10</v>
       </c>
       <c r="H778" t="s">
-        <v>979</v>
+        <v>293</v>
       </c>
       <c r="I778" t="s">
-        <v>1681</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.2">
@@ -28174,16 +28327,16 @@
         <v>0</v>
       </c>
       <c r="F779" t="s">
-        <v>790</v>
+        <v>75</v>
       </c>
       <c r="G779" t="s">
         <v>10</v>
       </c>
       <c r="H779" t="s">
-        <v>932</v>
+        <v>416</v>
       </c>
       <c r="I779" t="s">
-        <v>1682</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.2">
@@ -28203,16 +28356,16 @@
         <v>0</v>
       </c>
       <c r="F780" t="s">
-        <v>948</v>
+        <v>1720</v>
       </c>
       <c r="G780" t="s">
         <v>10</v>
       </c>
       <c r="H780" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="I780" t="s">
-        <v>1683</v>
+        <v>227</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.2">
@@ -28232,16 +28385,16 @@
         <v>0</v>
       </c>
       <c r="F781" t="s">
-        <v>1684</v>
+        <v>1531</v>
       </c>
       <c r="G781" t="s">
         <v>10</v>
       </c>
       <c r="H781" t="s">
-        <v>412</v>
+        <v>1721</v>
       </c>
       <c r="I781" t="s">
-        <v>1685</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.2">
@@ -28261,16 +28414,16 @@
         <v>0</v>
       </c>
       <c r="F782" t="s">
-        <v>249</v>
+        <v>985</v>
       </c>
       <c r="G782" t="s">
         <v>10</v>
       </c>
       <c r="H782" t="s">
-        <v>422</v>
+        <v>1723</v>
       </c>
       <c r="I782" t="s">
-        <v>1686</v>
+        <v>46</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.2">
@@ -28290,16 +28443,16 @@
         <v>0</v>
       </c>
       <c r="F783" t="s">
-        <v>723</v>
+        <v>1724</v>
       </c>
       <c r="G783" t="s">
         <v>10</v>
       </c>
       <c r="H783" t="s">
-        <v>928</v>
+        <v>972</v>
       </c>
       <c r="I783" t="s">
-        <v>1687</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.2">
@@ -28319,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="F784" t="s">
-        <v>1688</v>
+        <v>1534</v>
       </c>
       <c r="G784" t="s">
         <v>10</v>
@@ -28348,16 +28501,16 @@
         <v>0</v>
       </c>
       <c r="F785" t="s">
-        <v>1689</v>
+        <v>1726</v>
       </c>
       <c r="G785" t="s">
         <v>10</v>
       </c>
       <c r="H785" t="s">
-        <v>131</v>
+        <v>1139</v>
       </c>
       <c r="I785" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="786" spans="1:9" x14ac:dyDescent="0.2">
@@ -28377,16 +28530,16 @@
         <v>0</v>
       </c>
       <c r="F786" t="s">
-        <v>1690</v>
+        <v>1727</v>
       </c>
       <c r="G786" t="s">
         <v>10</v>
       </c>
       <c r="H786" t="s">
-        <v>1302</v>
+        <v>1044</v>
       </c>
       <c r="I786" t="s">
-        <v>1691</v>
+        <v>46</v>
       </c>
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.2">
@@ -28406,16 +28559,16 @@
         <v>0</v>
       </c>
       <c r="F787" t="s">
-        <v>601</v>
+        <v>1728</v>
       </c>
       <c r="G787" t="s">
         <v>10</v>
       </c>
       <c r="H787" t="s">
-        <v>1656</v>
+        <v>114</v>
       </c>
       <c r="I787" t="s">
-        <v>1667</v>
+        <v>126</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.2">
@@ -28435,16 +28588,16 @@
         <v>0</v>
       </c>
       <c r="F788" t="s">
-        <v>1692</v>
+        <v>593</v>
       </c>
       <c r="G788" t="s">
         <v>10</v>
       </c>
       <c r="H788" t="s">
-        <v>928</v>
+        <v>807</v>
       </c>
       <c r="I788" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.2">
@@ -28464,16 +28617,16 @@
         <v>0</v>
       </c>
       <c r="F789" t="s">
-        <v>1693</v>
+        <v>1729</v>
       </c>
       <c r="G789" t="s">
         <v>10</v>
       </c>
       <c r="H789" t="s">
-        <v>1512</v>
+        <v>1164</v>
       </c>
       <c r="I789" t="s">
-        <v>1694</v>
+        <v>71</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.2">
@@ -28493,16 +28646,16 @@
         <v>0</v>
       </c>
       <c r="F790" t="s">
-        <v>1695</v>
+        <v>1730</v>
       </c>
       <c r="G790" t="s">
         <v>10</v>
       </c>
       <c r="H790" t="s">
-        <v>909</v>
+        <v>289</v>
       </c>
       <c r="I790" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.2">
@@ -28522,16 +28675,16 @@
         <v>0</v>
       </c>
       <c r="F791" t="s">
-        <v>1697</v>
+        <v>1731</v>
       </c>
       <c r="G791" t="s">
         <v>10</v>
       </c>
       <c r="H791" t="s">
-        <v>1698</v>
+        <v>1732</v>
       </c>
       <c r="I791" t="s">
-        <v>1699</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.2">
@@ -28551,16 +28704,16 @@
         <v>0</v>
       </c>
       <c r="F792" t="s">
-        <v>1700</v>
+        <v>1641</v>
       </c>
       <c r="G792" t="s">
         <v>10</v>
       </c>
       <c r="H792" t="s">
-        <v>1701</v>
+        <v>461</v>
       </c>
       <c r="I792" t="s">
-        <v>55</v>
+        <v>340</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.2">
@@ -28580,16 +28733,16 @@
         <v>0</v>
       </c>
       <c r="F793" t="s">
-        <v>1702</v>
+        <v>1076</v>
       </c>
       <c r="G793" t="s">
         <v>10</v>
       </c>
       <c r="H793" t="s">
-        <v>1703</v>
+        <v>970</v>
       </c>
       <c r="I793" t="s">
-        <v>1671</v>
+        <v>971</v>
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.2">
@@ -28609,16 +28762,16 @@
         <v>0</v>
       </c>
       <c r="F794" t="s">
-        <v>1704</v>
+        <v>1437</v>
       </c>
       <c r="G794" t="s">
         <v>10</v>
       </c>
       <c r="H794" t="s">
-        <v>436</v>
+        <v>1733</v>
       </c>
       <c r="I794" t="s">
-        <v>260</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.2">
@@ -28638,13 +28791,13 @@
         <v>0</v>
       </c>
       <c r="F795" t="s">
-        <v>937</v>
+        <v>367</v>
       </c>
       <c r="G795" t="s">
         <v>10</v>
       </c>
       <c r="H795" t="s">
-        <v>1106</v>
+        <v>1735</v>
       </c>
       <c r="I795" t="s">
         <v>55</v>
@@ -28667,16 +28820,16 @@
         <v>0</v>
       </c>
       <c r="F796" t="s">
-        <v>382</v>
+        <v>1736</v>
       </c>
       <c r="G796" t="s">
         <v>10</v>
       </c>
       <c r="H796" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="I796" t="s">
-        <v>1673</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.2">
@@ -28696,16 +28849,16 @@
         <v>0</v>
       </c>
       <c r="F797" t="s">
-        <v>175</v>
+        <v>1738</v>
       </c>
       <c r="G797" t="s">
         <v>10</v>
       </c>
       <c r="H797" t="s">
-        <v>1092</v>
+        <v>1363</v>
       </c>
       <c r="I797" t="s">
-        <v>1705</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="798" spans="1:9" x14ac:dyDescent="0.2">
@@ -28725,16 +28878,16 @@
         <v>0</v>
       </c>
       <c r="F798" t="s">
-        <v>1706</v>
+        <v>976</v>
       </c>
       <c r="G798" t="s">
         <v>10</v>
       </c>
       <c r="H798" t="s">
-        <v>33</v>
+        <v>570</v>
       </c>
       <c r="I798" t="s">
-        <v>34</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.2">
@@ -28754,16 +28907,16 @@
         <v>0</v>
       </c>
       <c r="F799" t="s">
-        <v>1707</v>
+        <v>1291</v>
       </c>
       <c r="G799" t="s">
         <v>10</v>
       </c>
       <c r="H799" t="s">
-        <v>373</v>
+        <v>70</v>
       </c>
       <c r="I799" t="s">
-        <v>1708</v>
+        <v>71</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.2">
@@ -28783,16 +28936,16 @@
         <v>0</v>
       </c>
       <c r="F800" t="s">
-        <v>839</v>
+        <v>953</v>
       </c>
       <c r="G800" t="s">
         <v>10</v>
       </c>
       <c r="H800" t="s">
-        <v>1403</v>
+        <v>474</v>
       </c>
       <c r="I800" t="s">
-        <v>1709</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.2">
@@ -28812,16 +28965,16 @@
         <v>0</v>
       </c>
       <c r="F801" t="s">
-        <v>1429</v>
+        <v>1689</v>
       </c>
       <c r="G801" t="s">
         <v>10</v>
       </c>
       <c r="H801" t="s">
-        <v>1710</v>
+        <v>416</v>
       </c>
       <c r="I801" t="s">
-        <v>1711</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.2">
@@ -28841,16 +28994,16 @@
         <v>0</v>
       </c>
       <c r="F802" t="s">
-        <v>1712</v>
+        <v>1742</v>
       </c>
       <c r="G802" t="s">
         <v>10</v>
       </c>
       <c r="H802" t="s">
-        <v>725</v>
+        <v>365</v>
       </c>
       <c r="I802" t="s">
-        <v>1713</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.2">
@@ -28870,16 +29023,16 @@
         <v>0</v>
       </c>
       <c r="F803" t="s">
-        <v>97</v>
+        <v>1353</v>
       </c>
       <c r="G803" t="s">
         <v>10</v>
       </c>
       <c r="H803" t="s">
-        <v>1714</v>
+        <v>733</v>
       </c>
       <c r="I803" t="s">
-        <v>1366</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.2">
@@ -28899,16 +29052,16 @@
         <v>0</v>
       </c>
       <c r="F804" t="s">
-        <v>358</v>
+        <v>82</v>
       </c>
       <c r="G804" t="s">
         <v>10</v>
       </c>
       <c r="H804" t="s">
-        <v>733</v>
+        <v>352</v>
       </c>
       <c r="I804" t="s">
-        <v>1715</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.2">
@@ -28928,16 +29081,16 @@
         <v>0</v>
       </c>
       <c r="F805" t="s">
-        <v>794</v>
+        <v>1522</v>
       </c>
       <c r="G805" t="s">
         <v>10</v>
       </c>
       <c r="H805" t="s">
-        <v>814</v>
+        <v>1508</v>
       </c>
       <c r="I805" t="s">
-        <v>1716</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.2">
@@ -28957,16 +29110,16 @@
         <v>0</v>
       </c>
       <c r="F806" t="s">
-        <v>1717</v>
+        <v>1746</v>
       </c>
       <c r="G806" t="s">
         <v>10</v>
       </c>
       <c r="H806" t="s">
-        <v>454</v>
+        <v>1148</v>
       </c>
       <c r="I806" t="s">
-        <v>1718</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.2">
@@ -28986,16 +29139,16 @@
         <v>0</v>
       </c>
       <c r="F807" t="s">
-        <v>1719</v>
+        <v>1748</v>
       </c>
       <c r="G807" t="s">
         <v>10</v>
       </c>
       <c r="H807" t="s">
-        <v>139</v>
+        <v>1040</v>
       </c>
       <c r="I807" t="s">
-        <v>1720</v>
+        <v>208</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.2">
@@ -29015,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="F808" t="s">
-        <v>1721</v>
+        <v>1542</v>
       </c>
       <c r="G808" t="s">
         <v>10</v>
@@ -29044,16 +29197,16 @@
         <v>0</v>
       </c>
       <c r="F809" t="s">
-        <v>1722</v>
+        <v>1749</v>
       </c>
       <c r="G809" t="s">
         <v>10</v>
       </c>
       <c r="H809" t="s">
-        <v>1249</v>
+        <v>694</v>
       </c>
       <c r="I809" t="s">
-        <v>1723</v>
+        <v>439</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.2">
@@ -29073,16 +29226,16 @@
         <v>0</v>
       </c>
       <c r="F810" t="s">
-        <v>1724</v>
+        <v>1750</v>
       </c>
       <c r="G810" t="s">
         <v>10</v>
       </c>
       <c r="H810" t="s">
-        <v>1664</v>
+        <v>1751</v>
       </c>
       <c r="I810" t="s">
-        <v>439</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.2">
@@ -29102,16 +29255,16 @@
         <v>0</v>
       </c>
       <c r="F811" t="s">
-        <v>1725</v>
+        <v>1639</v>
       </c>
       <c r="G811" t="s">
         <v>10</v>
       </c>
       <c r="H811" t="s">
-        <v>625</v>
+        <v>1009</v>
       </c>
       <c r="I811" t="s">
-        <v>465</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.2">
@@ -29131,16 +29284,16 @@
         <v>0</v>
       </c>
       <c r="F812" t="s">
-        <v>1726</v>
+        <v>1752</v>
       </c>
       <c r="G812" t="s">
         <v>10</v>
       </c>
       <c r="H812" t="s">
-        <v>928</v>
+        <v>710</v>
       </c>
       <c r="I812" t="s">
-        <v>1727</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.2">
@@ -29160,16 +29313,16 @@
         <v>0</v>
       </c>
       <c r="F813" t="s">
-        <v>1728</v>
+        <v>1754</v>
       </c>
       <c r="G813" t="s">
         <v>10</v>
       </c>
       <c r="H813" t="s">
-        <v>1080</v>
+        <v>1755</v>
       </c>
       <c r="I813" t="s">
-        <v>1729</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.2">
@@ -29189,16 +29342,16 @@
         <v>0</v>
       </c>
       <c r="F814" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G814" t="s">
         <v>10</v>
       </c>
       <c r="H814" t="s">
-        <v>1100</v>
+        <v>1009</v>
       </c>
       <c r="I814" t="s">
-        <v>1727</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.2">
@@ -29218,16 +29371,16 @@
         <v>0</v>
       </c>
       <c r="F815" t="s">
-        <v>1731</v>
+        <v>1108</v>
       </c>
       <c r="G815" t="s">
         <v>10</v>
       </c>
       <c r="H815" t="s">
-        <v>1046</v>
+        <v>117</v>
       </c>
       <c r="I815" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.2">
@@ -29247,16 +29400,16 @@
         <v>0</v>
       </c>
       <c r="F816" t="s">
-        <v>1732</v>
+        <v>318</v>
       </c>
       <c r="G816" t="s">
         <v>10</v>
       </c>
       <c r="H816" t="s">
-        <v>51</v>
+        <v>1082</v>
       </c>
       <c r="I816" t="s">
-        <v>1733</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.2">
@@ -29276,16 +29429,712 @@
         <v>0</v>
       </c>
       <c r="F817" t="s">
-        <v>1734</v>
+        <v>1757</v>
       </c>
       <c r="G817" t="s">
         <v>10</v>
       </c>
       <c r="H817" t="s">
-        <v>1735</v>
+        <v>1054</v>
       </c>
       <c r="I817" t="s">
-        <v>1736</v>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>2019</v>
+      </c>
+      <c r="B818">
+        <v>4</v>
+      </c>
+      <c r="C818">
+        <v>30</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818">
+        <v>0</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G818" t="s">
+        <v>10</v>
+      </c>
+      <c r="H818" t="s">
+        <v>286</v>
+      </c>
+      <c r="I818" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>2019</v>
+      </c>
+      <c r="B819">
+        <v>4</v>
+      </c>
+      <c r="C819">
+        <v>30</v>
+      </c>
+      <c r="D819">
+        <v>1</v>
+      </c>
+      <c r="E819">
+        <v>0</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G819" t="s">
+        <v>10</v>
+      </c>
+      <c r="H819" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I819" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>2019</v>
+      </c>
+      <c r="B820">
+        <v>4</v>
+      </c>
+      <c r="C820">
+        <v>30</v>
+      </c>
+      <c r="D820">
+        <v>2</v>
+      </c>
+      <c r="E820">
+        <v>0</v>
+      </c>
+      <c r="F820" t="s">
+        <v>932</v>
+      </c>
+      <c r="G820" t="s">
+        <v>10</v>
+      </c>
+      <c r="H820" t="s">
+        <v>14</v>
+      </c>
+      <c r="I820" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>2019</v>
+      </c>
+      <c r="B821">
+        <v>4</v>
+      </c>
+      <c r="C821">
+        <v>30</v>
+      </c>
+      <c r="D821">
+        <v>3</v>
+      </c>
+      <c r="E821">
+        <v>0</v>
+      </c>
+      <c r="F821" t="s">
+        <v>709</v>
+      </c>
+      <c r="G821" t="s">
+        <v>10</v>
+      </c>
+      <c r="H821" t="s">
+        <v>894</v>
+      </c>
+      <c r="I821" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>2019</v>
+      </c>
+      <c r="B822">
+        <v>4</v>
+      </c>
+      <c r="C822">
+        <v>30</v>
+      </c>
+      <c r="D822">
+        <v>4</v>
+      </c>
+      <c r="E822">
+        <v>0</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G822" t="s">
+        <v>10</v>
+      </c>
+      <c r="H822" t="s">
+        <v>474</v>
+      </c>
+      <c r="I822" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>2019</v>
+      </c>
+      <c r="B823">
+        <v>4</v>
+      </c>
+      <c r="C823">
+        <v>30</v>
+      </c>
+      <c r="D823">
+        <v>5</v>
+      </c>
+      <c r="E823">
+        <v>0</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G823" t="s">
+        <v>10</v>
+      </c>
+      <c r="H823" t="s">
+        <v>39</v>
+      </c>
+      <c r="I823" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>2019</v>
+      </c>
+      <c r="B824">
+        <v>4</v>
+      </c>
+      <c r="C824">
+        <v>30</v>
+      </c>
+      <c r="D824">
+        <v>6</v>
+      </c>
+      <c r="E824">
+        <v>0</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G824" t="s">
+        <v>10</v>
+      </c>
+      <c r="H824" t="s">
+        <v>266</v>
+      </c>
+      <c r="I824" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>2019</v>
+      </c>
+      <c r="B825">
+        <v>4</v>
+      </c>
+      <c r="C825">
+        <v>30</v>
+      </c>
+      <c r="D825">
+        <v>7</v>
+      </c>
+      <c r="E825">
+        <v>0</v>
+      </c>
+      <c r="F825" t="s">
+        <v>42</v>
+      </c>
+      <c r="G825" t="s">
+        <v>10</v>
+      </c>
+      <c r="H825" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I825" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>2019</v>
+      </c>
+      <c r="B826">
+        <v>4</v>
+      </c>
+      <c r="C826">
+        <v>30</v>
+      </c>
+      <c r="D826">
+        <v>8</v>
+      </c>
+      <c r="E826">
+        <v>0</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G826" t="s">
+        <v>10</v>
+      </c>
+      <c r="H826" t="s">
+        <v>159</v>
+      </c>
+      <c r="I826" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>2019</v>
+      </c>
+      <c r="B827">
+        <v>4</v>
+      </c>
+      <c r="C827">
+        <v>30</v>
+      </c>
+      <c r="D827">
+        <v>9</v>
+      </c>
+      <c r="E827">
+        <v>0</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G827" t="s">
+        <v>10</v>
+      </c>
+      <c r="H827" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I827" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>2019</v>
+      </c>
+      <c r="B828">
+        <v>4</v>
+      </c>
+      <c r="C828">
+        <v>30</v>
+      </c>
+      <c r="D828">
+        <v>10</v>
+      </c>
+      <c r="E828">
+        <v>0</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G828" t="s">
+        <v>10</v>
+      </c>
+      <c r="H828" t="s">
+        <v>139</v>
+      </c>
+      <c r="I828" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>2019</v>
+      </c>
+      <c r="B829">
+        <v>4</v>
+      </c>
+      <c r="C829">
+        <v>30</v>
+      </c>
+      <c r="D829">
+        <v>11</v>
+      </c>
+      <c r="E829">
+        <v>0</v>
+      </c>
+      <c r="F829" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G829" t="s">
+        <v>10</v>
+      </c>
+      <c r="H829" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I829" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>2019</v>
+      </c>
+      <c r="B830">
+        <v>4</v>
+      </c>
+      <c r="C830">
+        <v>30</v>
+      </c>
+      <c r="D830">
+        <v>12</v>
+      </c>
+      <c r="E830">
+        <v>0</v>
+      </c>
+      <c r="F830" t="s">
+        <v>79</v>
+      </c>
+      <c r="G830" t="s">
+        <v>10</v>
+      </c>
+      <c r="H830" t="s">
+        <v>64</v>
+      </c>
+      <c r="I830" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>2019</v>
+      </c>
+      <c r="B831">
+        <v>4</v>
+      </c>
+      <c r="C831">
+        <v>30</v>
+      </c>
+      <c r="D831">
+        <v>13</v>
+      </c>
+      <c r="E831">
+        <v>0</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G831" t="s">
+        <v>10</v>
+      </c>
+      <c r="H831" t="s">
+        <v>509</v>
+      </c>
+      <c r="I831" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>2019</v>
+      </c>
+      <c r="B832">
+        <v>4</v>
+      </c>
+      <c r="C832">
+        <v>30</v>
+      </c>
+      <c r="D832">
+        <v>14</v>
+      </c>
+      <c r="E832">
+        <v>0</v>
+      </c>
+      <c r="F832" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G832" t="s">
+        <v>10</v>
+      </c>
+      <c r="H832" t="s">
+        <v>354</v>
+      </c>
+      <c r="I832" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>2019</v>
+      </c>
+      <c r="B833">
+        <v>4</v>
+      </c>
+      <c r="C833">
+        <v>30</v>
+      </c>
+      <c r="D833">
+        <v>15</v>
+      </c>
+      <c r="E833">
+        <v>0</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G833" t="s">
+        <v>10</v>
+      </c>
+      <c r="H833" t="s">
+        <v>915</v>
+      </c>
+      <c r="I833" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>2019</v>
+      </c>
+      <c r="B834">
+        <v>4</v>
+      </c>
+      <c r="C834">
+        <v>30</v>
+      </c>
+      <c r="D834">
+        <v>16</v>
+      </c>
+      <c r="E834">
+        <v>0</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G834" t="s">
+        <v>10</v>
+      </c>
+      <c r="H834" t="s">
+        <v>801</v>
+      </c>
+      <c r="I834" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>2019</v>
+      </c>
+      <c r="B835">
+        <v>4</v>
+      </c>
+      <c r="C835">
+        <v>30</v>
+      </c>
+      <c r="D835">
+        <v>17</v>
+      </c>
+      <c r="E835">
+        <v>0</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G835" t="s">
+        <v>10</v>
+      </c>
+      <c r="H835" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I835" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>2019</v>
+      </c>
+      <c r="B836">
+        <v>4</v>
+      </c>
+      <c r="C836">
+        <v>30</v>
+      </c>
+      <c r="D836">
+        <v>18</v>
+      </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
+      <c r="F836" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G836" t="s">
+        <v>10</v>
+      </c>
+      <c r="H836" t="s">
+        <v>970</v>
+      </c>
+      <c r="I836" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>2019</v>
+      </c>
+      <c r="B837">
+        <v>4</v>
+      </c>
+      <c r="C837">
+        <v>30</v>
+      </c>
+      <c r="D837">
+        <v>19</v>
+      </c>
+      <c r="E837">
+        <v>0</v>
+      </c>
+      <c r="F837" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G837" t="s">
+        <v>10</v>
+      </c>
+      <c r="H837" t="s">
+        <v>244</v>
+      </c>
+      <c r="I837" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>2019</v>
+      </c>
+      <c r="B838">
+        <v>4</v>
+      </c>
+      <c r="C838">
+        <v>30</v>
+      </c>
+      <c r="D838">
+        <v>20</v>
+      </c>
+      <c r="E838">
+        <v>0</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G838" t="s">
+        <v>10</v>
+      </c>
+      <c r="H838" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I838" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>2019</v>
+      </c>
+      <c r="B839">
+        <v>4</v>
+      </c>
+      <c r="C839">
+        <v>30</v>
+      </c>
+      <c r="D839">
+        <v>21</v>
+      </c>
+      <c r="E839">
+        <v>0</v>
+      </c>
+      <c r="F839" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G839" t="s">
+        <v>10</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I839" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>2019</v>
+      </c>
+      <c r="B840">
+        <v>4</v>
+      </c>
+      <c r="C840">
+        <v>30</v>
+      </c>
+      <c r="D840">
+        <v>22</v>
+      </c>
+      <c r="E840">
+        <v>0</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G840" t="s">
+        <v>10</v>
+      </c>
+      <c r="H840" t="s">
+        <v>406</v>
+      </c>
+      <c r="I840" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>2019</v>
+      </c>
+      <c r="B841">
+        <v>4</v>
+      </c>
+      <c r="C841">
+        <v>30</v>
+      </c>
+      <c r="D841">
+        <v>23</v>
+      </c>
+      <c r="E841">
+        <v>0</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G841" t="s">
+        <v>10</v>
+      </c>
+      <c r="H841" t="s">
+        <v>967</v>
+      </c>
+      <c r="I841" t="s">
+        <v>1787</v>
       </c>
     </row>
   </sheetData>
